--- a/Conception/Liste des routes.xlsx
+++ b/Conception/Liste des routes.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbaroche\Documents\Projets\benjamin\perso\greenroots-soutenance\Conception\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJETS\SOUTENANCE\CONCEPTION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2AFC3F-6565-4D11-B70E-18C3DAAE467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E81EF98-D544-44EA-AE78-BF806A21E3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="v3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$H$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil2!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'v3'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="162">
   <si>
     <t>Route</t>
   </si>
@@ -421,16 +423,119 @@
   <si>
     <t>/purchase-products/{id}</t>
   </si>
+  <si>
+    <t>Liste des commandes de l'utilisateur connecté</t>
+  </si>
+  <si>
+    <t>Body : CreatePurchaseAndProductsDto</t>
+  </si>
+  <si>
+    <t>Body : UpdatePurchaseDto</t>
+  </si>
+  <si>
+    <t>Body : { verificationToken }</t>
+  </si>
+  <si>
+    <t>/purchases/user/{id}</t>
+  </si>
+  <si>
+    <t>Query : page, query</t>
+  </si>
+  <si>
+    <t>/products/query</t>
+  </si>
+  <si>
+    <t>Query : page, category, price</t>
+  </si>
+  <si>
+    <t>/products/findWithSearch</t>
+  </si>
+  <si>
+    <t>Query : query</t>
+  </si>
+  <si>
+    <t>/products/all</t>
+  </si>
+  <si>
+    <t>Body : CreateProductDto</t>
+  </si>
+  <si>
+    <t>Body : UpdateProductDto</t>
+  </si>
+  <si>
+    <t>Body : CreateCategoryDto</t>
+  </si>
+  <si>
+    <t>Body : UpdateCategoryDto</t>
+  </si>
+  <si>
+    <t>/users</t>
+  </si>
+  <si>
+    <t>Body : CreateUserDto</t>
+  </si>
+  <si>
+    <t>Body : UpdateUserDto</t>
+  </si>
+  <si>
+    <t>Body : CreateRoleDto</t>
+  </si>
+  <si>
+    <t>Body : UpdateRoleDto</t>
+  </si>
+  <si>
+    <t>Body : CreateImageDto</t>
+  </si>
+  <si>
+    <t>Body : UpdateImageDto</t>
+  </si>
+  <si>
+    <t>Body : CreatePurchaseProductDto</t>
+  </si>
+  <si>
+    <t>Body : CreatePurchaseProductDto[]</t>
+  </si>
+  <si>
+    <t>Body : UpdatePurchaseProductDto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Commandes d'un utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Produits filtrés par catégorie/prix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autocomplete pour barre de recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tous les produits sans pagination</t>
+  </si>
+  <si>
+    <t>Création multiple pour une commande</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liste tous les paniers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Détail d'un panier</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -479,7 +584,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,6 +607,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -532,39 +643,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -29120,8 +29240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9A2D5B-326C-44CC-8B6A-FD5379234940}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29746,5 +29866,721 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{BE9A2D5B-326C-44CC-8B6A-FD5379234940}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D851E7BA-AC33-45CB-ACD1-A298F152AF57}">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="13"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{D851E7BA-AC33-45CB-ACD1-A298F152AF57}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>